--- a/TSF PORTFOLIO 2.0.xlsx
+++ b/TSF PORTFOLIO 2.0.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="324" yWindow="540" windowWidth="17916" windowHeight="10260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="324" yWindow="540" windowWidth="17916" windowHeight="10260" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="9" r:id="rId1"/>
-    <sheet name="Postions Clean (2)" sheetId="8" r:id="rId2"/>
-    <sheet name="Positions Filter" sheetId="7" r:id="rId3"/>
+    <sheet name="Postions Clean (2)" sheetId="8" r:id="rId1"/>
+    <sheet name="Positions ETF" sheetId="7" r:id="rId2"/>
+    <sheet name="Postions Active" sheetId="9" r:id="rId3"/>
     <sheet name="Postions Clean" sheetId="5" r:id="rId4"/>
     <sheet name="Overview" sheetId="1" r:id="rId5"/>
     <sheet name="POSITIONS" sheetId="2" r:id="rId6"/>
@@ -23,8 +23,8 @@
     <sheet name="CLOSED POSITIONS" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Positions Filter'!$A$1:$N$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Postions Clean (2)'!$A$1:$N$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Positions ETF'!$A$1:$N$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Postions Clean (2)'!$A$1:$N$28</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="162">
   <si>
     <t>POSITION</t>
   </si>
@@ -1752,7 +1752,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> S&amp;P and </a:t>
+              <a:t> S&amp;P and TSF Portfolio </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2435,7 +2435,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/yy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2444,7 +2444,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200"/>
+              <a:defRPr sz="1200" b="1"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2474,7 +2474,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200"/>
+              <a:defRPr sz="1400" b="1"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2499,7 +2499,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2859,697 +2859,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AD4A65-3F3B-4081-B653-B2D35E07400A}">
-  <dimension ref="A1:N16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="291" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="291" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="291" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="291" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="291" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="291" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="291" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="291" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="291" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="291" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="291" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="291" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="291" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="291" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="291" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="291" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="292" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="291">
-        <v>23</v>
-      </c>
-      <c r="E2" s="293">
-        <v>42290</v>
-      </c>
-      <c r="F2" s="294">
-        <v>63.26</v>
-      </c>
-      <c r="G2" s="294">
-        <v>53.42</v>
-      </c>
-      <c r="H2" s="294">
-        <v>1228.6600000000001</v>
-      </c>
-      <c r="I2" s="294">
-        <v>-226.32</v>
-      </c>
-      <c r="J2" s="295">
-        <v>-0.1555</v>
-      </c>
-      <c r="K2" s="295">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="L2" s="291">
-        <v>24</v>
-      </c>
-      <c r="M2" s="291">
-        <v>22.82</v>
-      </c>
-      <c r="N2" s="291">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="291" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="291" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="292" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="291">
-        <v>12</v>
-      </c>
-      <c r="E3" s="293">
-        <v>42815</v>
-      </c>
-      <c r="F3" s="294">
-        <v>92.31</v>
-      </c>
-      <c r="G3" s="294">
-        <v>77.22</v>
-      </c>
-      <c r="H3" s="294">
-        <v>926.64</v>
-      </c>
-      <c r="I3" s="294">
-        <v>-181.08</v>
-      </c>
-      <c r="J3" s="295">
-        <v>-0.16350000000000001</v>
-      </c>
-      <c r="K3" s="295">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="L3" s="291">
-        <v>7</v>
-      </c>
-      <c r="M3" s="291">
-        <v>24.71</v>
-      </c>
-      <c r="N3" s="291" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="291" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="291" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="292" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="291">
-        <v>25</v>
-      </c>
-      <c r="E4" s="293">
-        <v>42338</v>
-      </c>
-      <c r="F4" s="294">
-        <v>79.34</v>
-      </c>
-      <c r="G4" s="294">
-        <v>108.41</v>
-      </c>
-      <c r="H4" s="294">
-        <v>2710.25</v>
-      </c>
-      <c r="I4" s="294">
-        <v>726.75</v>
-      </c>
-      <c r="J4" s="295">
-        <v>0.3664</v>
-      </c>
-      <c r="K4" s="295">
-        <v>5.2699999999999997E-2</v>
-      </c>
-      <c r="L4" s="291">
-        <v>23</v>
-      </c>
-      <c r="M4" s="291">
-        <v>40.32</v>
-      </c>
-      <c r="N4" s="291">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="291" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="291" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="292" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="291">
-        <v>36</v>
-      </c>
-      <c r="E5" s="293">
-        <v>42692</v>
-      </c>
-      <c r="F5" s="294">
-        <v>25.75</v>
-      </c>
-      <c r="G5" s="294">
-        <v>28.6</v>
-      </c>
-      <c r="H5" s="294">
-        <v>1029.5999999999999</v>
-      </c>
-      <c r="I5" s="294">
-        <v>102.6</v>
-      </c>
-      <c r="J5" s="295">
-        <v>0.11070000000000001</v>
-      </c>
-      <c r="K5" s="295">
-        <v>0.02</v>
-      </c>
-      <c r="L5" s="291">
-        <v>11</v>
-      </c>
-      <c r="M5" s="291">
-        <v>14.59</v>
-      </c>
-      <c r="N5" s="291">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="291" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="291" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="292" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="291">
-        <v>9</v>
-      </c>
-      <c r="E6" s="293">
-        <v>42349</v>
-      </c>
-      <c r="F6" s="294">
-        <v>101.28</v>
-      </c>
-      <c r="G6" s="294">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="H6" s="294">
-        <v>720.9</v>
-      </c>
-      <c r="I6" s="294">
-        <v>-190.62</v>
-      </c>
-      <c r="J6" s="295">
-        <v>-0.20910000000000001</v>
-      </c>
-      <c r="K6" s="295">
-        <v>1.4E-2</v>
-      </c>
-      <c r="L6" s="291">
-        <v>22</v>
-      </c>
-      <c r="M6" s="291">
-        <v>8.69</v>
-      </c>
-      <c r="N6" s="291">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="291" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="291" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="292" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="291">
-        <v>5</v>
-      </c>
-      <c r="E7" s="293">
-        <v>42349</v>
-      </c>
-      <c r="F7" s="294">
-        <v>188.72</v>
-      </c>
-      <c r="G7" s="294">
-        <v>149.75</v>
-      </c>
-      <c r="H7" s="294">
-        <v>748.75</v>
-      </c>
-      <c r="I7" s="294">
-        <v>-194.85</v>
-      </c>
-      <c r="J7" s="295">
-        <v>-0.20649999999999999</v>
-      </c>
-      <c r="K7" s="295">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="L7" s="291">
-        <v>22</v>
-      </c>
-      <c r="M7" s="291">
-        <v>6.67</v>
-      </c>
-      <c r="N7" s="291">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="291" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="291" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="292" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="291">
-        <v>6</v>
-      </c>
-      <c r="E8" s="293">
-        <v>42815</v>
-      </c>
-      <c r="F8" s="294">
-        <v>168.82</v>
-      </c>
-      <c r="G8" s="294">
-        <v>208.15</v>
-      </c>
-      <c r="H8" s="294">
-        <v>1248.9000000000001</v>
-      </c>
-      <c r="I8" s="294">
-        <v>235.98</v>
-      </c>
-      <c r="J8" s="295">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="K8" s="295">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="L8" s="291">
-        <v>7</v>
-      </c>
-      <c r="M8" s="291">
-        <v>23.66</v>
-      </c>
-      <c r="N8" s="291">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="291" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="291" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="292" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="291">
-        <v>15</v>
-      </c>
-      <c r="E9" s="293">
-        <v>42324</v>
-      </c>
-      <c r="F9" s="294">
-        <v>89.86</v>
-      </c>
-      <c r="G9" s="294">
-        <v>91.83</v>
-      </c>
-      <c r="H9" s="294">
-        <v>1377.45</v>
-      </c>
-      <c r="I9" s="294">
-        <v>29.55</v>
-      </c>
-      <c r="J9" s="295">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="K9" s="295">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="L9" s="291">
-        <v>23</v>
-      </c>
-      <c r="M9" s="291">
-        <v>27.46</v>
-      </c>
-      <c r="N9" s="291">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="291" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="291" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="291">
-        <v>20</v>
-      </c>
-      <c r="E10" s="293">
-        <v>42671</v>
-      </c>
-      <c r="F10" s="294">
-        <v>43.53</v>
-      </c>
-      <c r="G10" s="294">
-        <v>42.31</v>
-      </c>
-      <c r="H10" s="294">
-        <v>846.2</v>
-      </c>
-      <c r="I10" s="294">
-        <v>-24.4</v>
-      </c>
-      <c r="J10" s="295">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="K10" s="295">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="L10" s="291">
-        <v>12</v>
-      </c>
-      <c r="M10" s="291">
-        <v>14.94</v>
-      </c>
-      <c r="N10" s="291">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="291" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="291" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="292" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="291">
-        <v>12</v>
-      </c>
-      <c r="E11" s="293">
-        <v>42424</v>
-      </c>
-      <c r="F11" s="294">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G11" s="294">
-        <v>87.99</v>
-      </c>
-      <c r="H11" s="294">
-        <v>1055.8800000000001</v>
-      </c>
-      <c r="I11" s="294">
-        <v>160.68</v>
-      </c>
-      <c r="J11" s="295">
-        <v>0.17949999999999999</v>
-      </c>
-      <c r="K11" s="295">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="L11" s="291">
-        <v>20</v>
-      </c>
-      <c r="M11" s="291">
-        <v>22.17</v>
-      </c>
-      <c r="N11" s="291">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="291" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="291" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="292" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="291">
-        <v>60</v>
-      </c>
-      <c r="E12" s="293">
-        <v>42825</v>
-      </c>
-      <c r="F12" s="294">
-        <v>16.62</v>
-      </c>
-      <c r="G12" s="294">
-        <v>16.12</v>
-      </c>
-      <c r="H12" s="294">
-        <v>967.2</v>
-      </c>
-      <c r="I12" s="294">
-        <v>-30</v>
-      </c>
-      <c r="J12" s="295">
-        <v>-3.0099999999999998E-2</v>
-      </c>
-      <c r="K12" s="295">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="L12" s="291">
-        <v>7</v>
-      </c>
-      <c r="M12" s="291"/>
-      <c r="N12" s="291">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="291" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="291" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="292" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="291">
-        <v>23</v>
-      </c>
-      <c r="E13" s="293">
-        <v>42825</v>
-      </c>
-      <c r="F13" s="294">
-        <v>36.25</v>
-      </c>
-      <c r="G13" s="294">
-        <v>40.950000000000003</v>
-      </c>
-      <c r="H13" s="294">
-        <v>941.85</v>
-      </c>
-      <c r="I13" s="294">
-        <v>108.15</v>
-      </c>
-      <c r="J13" s="295">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="K13" s="295">
-        <v>1.83E-2</v>
-      </c>
-      <c r="L13" s="291">
-        <v>7</v>
-      </c>
-      <c r="M13" s="291">
-        <v>15.69</v>
-      </c>
-      <c r="N13" s="291">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="291" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="291" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="292" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="291">
-        <v>14</v>
-      </c>
-      <c r="E14" s="293">
-        <v>42825</v>
-      </c>
-      <c r="F14" s="294">
-        <v>57.68</v>
-      </c>
-      <c r="G14" s="294">
-        <v>54.25</v>
-      </c>
-      <c r="H14" s="294">
-        <v>759.5</v>
-      </c>
-      <c r="I14" s="294">
-        <v>-47.99</v>
-      </c>
-      <c r="J14" s="295">
-        <v>-5.9400000000000001E-2</v>
-      </c>
-      <c r="K14" s="295">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="L14" s="291">
-        <v>7</v>
-      </c>
-      <c r="M14" s="291">
-        <v>20.77</v>
-      </c>
-      <c r="N14" s="291">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="291" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="291" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="292" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="291">
-        <v>30</v>
-      </c>
-      <c r="E15" s="293">
-        <v>42436</v>
-      </c>
-      <c r="F15" s="294">
-        <v>38.130000000000003</v>
-      </c>
-      <c r="G15" s="294">
-        <v>34.86</v>
-      </c>
-      <c r="H15" s="294">
-        <v>1045.8</v>
-      </c>
-      <c r="I15" s="294">
-        <v>-98.1</v>
-      </c>
-      <c r="J15" s="295">
-        <v>-8.5800000000000001E-2</v>
-      </c>
-      <c r="K15" s="295">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="L15" s="291">
-        <v>19</v>
-      </c>
-      <c r="M15" s="291">
-        <v>16.38</v>
-      </c>
-      <c r="N15" s="291">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="K16" s="228">
-        <f>SUM(K2:K15)</f>
-        <v>0.30329999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="J2:J15">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBAD822-315B-481A-8B88-6586449ACCA9}">
   <dimension ref="A1:N39"/>
   <sheetViews>
@@ -4874,13 +4183,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EB2A3A-C366-42F1-B045-7DE465290616}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5379,759 +4688,909 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="291" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="291" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="292" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="291">
-        <v>23</v>
-      </c>
-      <c r="E12" s="293">
-        <v>42290</v>
-      </c>
-      <c r="F12" s="294">
-        <v>63.26</v>
-      </c>
-      <c r="G12" s="294">
-        <v>53.42</v>
-      </c>
-      <c r="H12" s="294">
-        <v>1228.6600000000001</v>
-      </c>
-      <c r="I12" s="294">
-        <v>-226.32</v>
-      </c>
-      <c r="J12" s="295"/>
-      <c r="K12" s="295"/>
-      <c r="L12" s="291">
-        <v>24</v>
-      </c>
-      <c r="M12" s="291">
-        <v>22.82</v>
-      </c>
-      <c r="N12" s="291">
-        <v>0.62</v>
+      <c r="K12" s="295">
+        <f>SUM(K2:K11)</f>
+        <v>0.46480000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="291" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="294">
+        <v>11939.38</v>
+      </c>
+      <c r="J13" s="295">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="L13" s="291" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="291">
+        <f>AVERAGE(M2:M11)</f>
+        <v>15.382222222222222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="291" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="294">
+        <v>51468.91</v>
+      </c>
+      <c r="J14" s="295">
+        <v>1</v>
+      </c>
+      <c r="L14" s="291" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" s="291" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="291" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="291" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="291" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="291" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="291" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="296"/>
+      <c r="J17" s="297">
+        <f>SUMPRODUCT(J2:J11,K2:K11)*1/SUM(K2:K11)</f>
+        <v>0.23825219449225471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="291" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="295">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C18" s="291" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="291">
+        <v>12.0831</v>
+      </c>
+      <c r="E18" s="295">
+        <v>0.18429999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="291" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="295">
+        <v>0.3327</v>
+      </c>
+      <c r="C19" s="291" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="291">
+        <v>33.64</v>
+      </c>
+      <c r="E19" s="295">
+        <v>0.1573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="291" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="295">
+        <v>0.1074</v>
+      </c>
+      <c r="C20" s="291" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="291">
+        <v>10.09</v>
+      </c>
+      <c r="E20" s="295">
+        <v>0.1239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="291" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="295">
+        <v>0.38929999999999998</v>
+      </c>
+      <c r="C21" s="291" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="291" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="295">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="291" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="295">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="C22" s="291" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="291" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="295">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="291" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="295">
+        <v>0.1037</v>
+      </c>
+      <c r="C23" s="291" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="291">
+        <v>13.68</v>
+      </c>
+      <c r="E23" s="295">
+        <v>9.0499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="291" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="291" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="291">
+        <v>0</v>
+      </c>
+      <c r="D24" s="291" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="295">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="E25" s="295">
+        <v>1</v>
+      </c>
+      <c r="F25" s="295" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N11" xr:uid="{67AD23C9-A183-4203-B791-89664180B877}">
+    <sortState ref="A2:N11">
+      <sortCondition descending="1" ref="J1:J11"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="J2:J11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AD4A65-3F3B-4081-B653-B2D35E07400A}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="291" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="291" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="291" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="291" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="291" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="291" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="291" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="291" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="291" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="291" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="291" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="291" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="291" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="292" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="291">
+        <v>23</v>
+      </c>
+      <c r="E2" s="293">
+        <v>42290</v>
+      </c>
+      <c r="F2" s="294">
+        <v>63.26</v>
+      </c>
+      <c r="G2" s="294">
+        <v>53.42</v>
+      </c>
+      <c r="H2" s="294">
+        <v>1228.6600000000001</v>
+      </c>
+      <c r="I2" s="294">
+        <v>-226.32</v>
+      </c>
+      <c r="J2" s="295">
+        <v>-0.1555</v>
+      </c>
+      <c r="K2" s="295">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="L2" s="291">
+        <v>24</v>
+      </c>
+      <c r="M2" s="291">
+        <v>22.82</v>
+      </c>
+      <c r="N2" s="291">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="291" t="s">
         <v>38</v>
       </c>
+      <c r="B3" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="292" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="291">
+        <v>12</v>
+      </c>
+      <c r="E3" s="293">
+        <v>42815</v>
+      </c>
+      <c r="F3" s="294">
+        <v>92.31</v>
+      </c>
+      <c r="G3" s="294">
+        <v>77.22</v>
+      </c>
+      <c r="H3" s="294">
+        <v>926.64</v>
+      </c>
+      <c r="I3" s="294">
+        <v>-181.08</v>
+      </c>
+      <c r="J3" s="295">
+        <v>-0.16350000000000001</v>
+      </c>
+      <c r="K3" s="295">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L3" s="291">
+        <v>7</v>
+      </c>
+      <c r="M3" s="291">
+        <v>24.71</v>
+      </c>
+      <c r="N3" s="291" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="291" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="292" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="291">
+        <v>25</v>
+      </c>
+      <c r="E4" s="293">
+        <v>42338</v>
+      </c>
+      <c r="F4" s="294">
+        <v>79.34</v>
+      </c>
+      <c r="G4" s="294">
+        <v>108.41</v>
+      </c>
+      <c r="H4" s="294">
+        <v>2710.25</v>
+      </c>
+      <c r="I4" s="294">
+        <v>726.75</v>
+      </c>
+      <c r="J4" s="295">
+        <v>0.3664</v>
+      </c>
+      <c r="K4" s="295">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="L4" s="291">
+        <v>23</v>
+      </c>
+      <c r="M4" s="291">
+        <v>40.32</v>
+      </c>
+      <c r="N4" s="291">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="291" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="292" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="291">
+        <v>36</v>
+      </c>
+      <c r="E5" s="293">
+        <v>42692</v>
+      </c>
+      <c r="F5" s="294">
+        <v>25.75</v>
+      </c>
+      <c r="G5" s="294">
+        <v>28.6</v>
+      </c>
+      <c r="H5" s="294">
+        <v>1029.5999999999999</v>
+      </c>
+      <c r="I5" s="294">
+        <v>102.6</v>
+      </c>
+      <c r="J5" s="295">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="K5" s="295">
+        <v>0.02</v>
+      </c>
+      <c r="L5" s="291">
+        <v>11</v>
+      </c>
+      <c r="M5" s="291">
+        <v>14.59</v>
+      </c>
+      <c r="N5" s="291">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="291" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="291" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="292" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="291">
+        <v>9</v>
+      </c>
+      <c r="E6" s="293">
+        <v>42349</v>
+      </c>
+      <c r="F6" s="294">
+        <v>101.28</v>
+      </c>
+      <c r="G6" s="294">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="H6" s="294">
+        <v>720.9</v>
+      </c>
+      <c r="I6" s="294">
+        <v>-190.62</v>
+      </c>
+      <c r="J6" s="295">
+        <v>-0.20910000000000001</v>
+      </c>
+      <c r="K6" s="295">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L6" s="291">
+        <v>22</v>
+      </c>
+      <c r="M6" s="291">
+        <v>8.69</v>
+      </c>
+      <c r="N6" s="291">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="291" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="291" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="292" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="291">
+        <v>5</v>
+      </c>
+      <c r="E7" s="293">
+        <v>42349</v>
+      </c>
+      <c r="F7" s="294">
+        <v>188.72</v>
+      </c>
+      <c r="G7" s="294">
+        <v>149.75</v>
+      </c>
+      <c r="H7" s="294">
+        <v>748.75</v>
+      </c>
+      <c r="I7" s="294">
+        <v>-194.85</v>
+      </c>
+      <c r="J7" s="295">
+        <v>-0.20649999999999999</v>
+      </c>
+      <c r="K7" s="295">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="L7" s="291">
+        <v>22</v>
+      </c>
+      <c r="M7" s="291">
+        <v>6.67</v>
+      </c>
+      <c r="N7" s="291">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="291" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="291" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="291">
+        <v>6</v>
+      </c>
+      <c r="E8" s="293">
+        <v>42815</v>
+      </c>
+      <c r="F8" s="294">
+        <v>168.82</v>
+      </c>
+      <c r="G8" s="294">
+        <v>208.15</v>
+      </c>
+      <c r="H8" s="294">
+        <v>1248.9000000000001</v>
+      </c>
+      <c r="I8" s="294">
+        <v>235.98</v>
+      </c>
+      <c r="J8" s="295">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="K8" s="295">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="L8" s="291">
+        <v>7</v>
+      </c>
+      <c r="M8" s="291">
+        <v>23.66</v>
+      </c>
+      <c r="N8" s="291">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="291" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="292" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="291">
+        <v>15</v>
+      </c>
+      <c r="E9" s="293">
+        <v>42324</v>
+      </c>
+      <c r="F9" s="294">
+        <v>89.86</v>
+      </c>
+      <c r="G9" s="294">
+        <v>91.83</v>
+      </c>
+      <c r="H9" s="294">
+        <v>1377.45</v>
+      </c>
+      <c r="I9" s="294">
+        <v>29.55</v>
+      </c>
+      <c r="J9" s="295">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="K9" s="295">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="L9" s="291">
+        <v>23</v>
+      </c>
+      <c r="M9" s="291">
+        <v>27.46</v>
+      </c>
+      <c r="N9" s="291">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="291" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="292" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="291">
+        <v>20</v>
+      </c>
+      <c r="E10" s="293">
+        <v>42671</v>
+      </c>
+      <c r="F10" s="294">
+        <v>43.53</v>
+      </c>
+      <c r="G10" s="294">
+        <v>42.31</v>
+      </c>
+      <c r="H10" s="294">
+        <v>846.2</v>
+      </c>
+      <c r="I10" s="294">
+        <v>-24.4</v>
+      </c>
+      <c r="J10" s="295">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="K10" s="295">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="L10" s="291">
+        <v>12</v>
+      </c>
+      <c r="M10" s="291">
+        <v>14.94</v>
+      </c>
+      <c r="N10" s="291">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="291" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="291">
+        <v>12</v>
+      </c>
+      <c r="E11" s="293">
+        <v>42424</v>
+      </c>
+      <c r="F11" s="294">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="G11" s="294">
+        <v>87.99</v>
+      </c>
+      <c r="H11" s="294">
+        <v>1055.8800000000001</v>
+      </c>
+      <c r="I11" s="294">
+        <v>160.68</v>
+      </c>
+      <c r="J11" s="295">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="K11" s="295">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="L11" s="291">
+        <v>20</v>
+      </c>
+      <c r="M11" s="291">
+        <v>22.17</v>
+      </c>
+      <c r="N11" s="291">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="291" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="291">
+        <v>60</v>
+      </c>
+      <c r="E12" s="293">
+        <v>42825</v>
+      </c>
+      <c r="F12" s="294">
+        <v>16.62</v>
+      </c>
+      <c r="G12" s="294">
+        <v>16.12</v>
+      </c>
+      <c r="H12" s="294">
+        <v>967.2</v>
+      </c>
+      <c r="I12" s="294">
+        <v>-30</v>
+      </c>
+      <c r="J12" s="295">
+        <v>-3.0099999999999998E-2</v>
+      </c>
+      <c r="K12" s="295">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="L12" s="291">
+        <v>7</v>
+      </c>
+      <c r="M12" s="291"/>
+      <c r="N12" s="291">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="291" t="s">
+        <v>132</v>
+      </c>
       <c r="B13" s="291" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C13" s="292" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D13" s="291">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E13" s="293">
-        <v>42815</v>
+        <v>42825</v>
       </c>
       <c r="F13" s="294">
-        <v>92.31</v>
+        <v>36.25</v>
       </c>
       <c r="G13" s="294">
-        <v>77.22</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="H13" s="294">
-        <v>926.64</v>
+        <v>941.85</v>
       </c>
       <c r="I13" s="294">
-        <v>-181.08</v>
-      </c>
-      <c r="J13" s="295"/>
-      <c r="K13" s="295"/>
+        <v>108.15</v>
+      </c>
+      <c r="J13" s="295">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="K13" s="295">
+        <v>1.83E-2</v>
+      </c>
       <c r="L13" s="291">
         <v>7</v>
       </c>
       <c r="M13" s="291">
-        <v>24.71</v>
-      </c>
-      <c r="N13" s="291" t="e">
-        <v>#N/A</v>
+        <v>15.69</v>
+      </c>
+      <c r="N13" s="291">
+        <v>1.07</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="291" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="B14" s="291" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C14" s="292" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="D14" s="291">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E14" s="293">
-        <v>42338</v>
+        <v>42825</v>
       </c>
       <c r="F14" s="294">
-        <v>79.34</v>
+        <v>57.68</v>
       </c>
       <c r="G14" s="294">
-        <v>108.41</v>
+        <v>54.25</v>
       </c>
       <c r="H14" s="294">
-        <v>2710.25</v>
+        <v>759.5</v>
       </c>
       <c r="I14" s="294">
-        <v>726.75</v>
-      </c>
-      <c r="J14" s="295"/>
-      <c r="K14" s="295"/>
+        <v>-47.99</v>
+      </c>
+      <c r="J14" s="295">
+        <v>-5.9400000000000001E-2</v>
+      </c>
+      <c r="K14" s="295">
+        <v>1.4800000000000001E-2</v>
+      </c>
       <c r="L14" s="291">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="M14" s="291">
-        <v>40.32</v>
+        <v>20.77</v>
       </c>
       <c r="N14" s="291">
-        <v>0.95</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="291" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="B15" s="291" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C15" s="292" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="D15" s="291">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E15" s="293">
-        <v>42692</v>
+        <v>42436</v>
       </c>
       <c r="F15" s="294">
-        <v>25.75</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="G15" s="294">
-        <v>28.6</v>
+        <v>34.86</v>
       </c>
       <c r="H15" s="294">
-        <v>1029.5999999999999</v>
+        <v>1045.8</v>
       </c>
       <c r="I15" s="294">
-        <v>102.6</v>
-      </c>
-      <c r="J15" s="295"/>
-      <c r="K15" s="295"/>
+        <v>-98.1</v>
+      </c>
+      <c r="J15" s="295">
+        <v>-8.5800000000000001E-2</v>
+      </c>
+      <c r="K15" s="295">
+        <v>2.0299999999999999E-2</v>
+      </c>
       <c r="L15" s="291">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M15" s="291">
-        <v>14.59</v>
+        <v>16.38</v>
       </c>
       <c r="N15" s="291">
-        <v>1.37</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="291" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="291" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="292" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="291">
-        <v>9</v>
-      </c>
-      <c r="E16" s="293">
-        <v>42349</v>
-      </c>
-      <c r="F16" s="294">
-        <v>101.28</v>
-      </c>
-      <c r="G16" s="294">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="H16" s="294">
-        <v>720.9</v>
-      </c>
-      <c r="I16" s="294">
-        <v>-190.62</v>
-      </c>
-      <c r="J16" s="295"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="291">
-        <v>22</v>
-      </c>
-      <c r="M16" s="291">
-        <v>8.69</v>
-      </c>
-      <c r="N16" s="291">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="291" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="291" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="292" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="291">
-        <v>5</v>
-      </c>
-      <c r="E17" s="293">
-        <v>42349</v>
-      </c>
-      <c r="F17" s="294">
-        <v>188.72</v>
-      </c>
-      <c r="G17" s="294">
-        <v>149.75</v>
-      </c>
-      <c r="H17" s="294">
-        <v>748.75</v>
-      </c>
-      <c r="I17" s="294">
-        <v>-194.85</v>
-      </c>
-      <c r="J17" s="295"/>
-      <c r="K17" s="295"/>
-      <c r="L17" s="291">
-        <v>22</v>
-      </c>
-      <c r="M17" s="291">
-        <v>6.67</v>
-      </c>
-      <c r="N17" s="291">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="291" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="291" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="292" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="291">
-        <v>6</v>
-      </c>
-      <c r="E18" s="293">
-        <v>42815</v>
-      </c>
-      <c r="F18" s="294">
-        <v>168.82</v>
-      </c>
-      <c r="G18" s="294">
-        <v>208.15</v>
-      </c>
-      <c r="H18" s="294">
-        <v>1248.9000000000001</v>
-      </c>
-      <c r="I18" s="294">
-        <v>235.98</v>
-      </c>
-      <c r="J18" s="295"/>
-      <c r="K18" s="295"/>
-      <c r="L18" s="291">
-        <v>7</v>
-      </c>
-      <c r="M18" s="291">
-        <v>23.66</v>
-      </c>
-      <c r="N18" s="291">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="291" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="291" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="292" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="291">
-        <v>15</v>
-      </c>
-      <c r="E19" s="293">
-        <v>42324</v>
-      </c>
-      <c r="F19" s="294">
-        <v>89.86</v>
-      </c>
-      <c r="G19" s="294">
-        <v>91.83</v>
-      </c>
-      <c r="H19" s="294">
-        <v>1377.45</v>
-      </c>
-      <c r="I19" s="294">
-        <v>29.55</v>
-      </c>
-      <c r="J19" s="295"/>
-      <c r="K19" s="295"/>
-      <c r="L19" s="291">
-        <v>23</v>
-      </c>
-      <c r="M19" s="291">
-        <v>27.46</v>
-      </c>
-      <c r="N19" s="291">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="291" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="291" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="292" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="291">
-        <v>20</v>
-      </c>
-      <c r="E20" s="293">
-        <v>42671</v>
-      </c>
-      <c r="F20" s="294">
-        <v>43.53</v>
-      </c>
-      <c r="G20" s="294">
-        <v>42.31</v>
-      </c>
-      <c r="H20" s="294">
-        <v>846.2</v>
-      </c>
-      <c r="I20" s="294">
-        <v>-24.4</v>
-      </c>
-      <c r="J20" s="295"/>
-      <c r="K20" s="295"/>
-      <c r="L20" s="291">
-        <v>12</v>
-      </c>
-      <c r="M20" s="291">
-        <v>14.94</v>
-      </c>
-      <c r="N20" s="291">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="291" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="291" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="292" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="291">
-        <v>12</v>
-      </c>
-      <c r="E21" s="293">
-        <v>42424</v>
-      </c>
-      <c r="F21" s="294">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G21" s="294">
-        <v>87.99</v>
-      </c>
-      <c r="H21" s="294">
-        <v>1055.8800000000001</v>
-      </c>
-      <c r="I21" s="294">
-        <v>160.68</v>
-      </c>
-      <c r="J21" s="295"/>
-      <c r="K21" s="295"/>
-      <c r="L21" s="291">
-        <v>20</v>
-      </c>
-      <c r="M21" s="291">
-        <v>22.17</v>
-      </c>
-      <c r="N21" s="291">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="291" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="291" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="292" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="291">
-        <v>60</v>
-      </c>
-      <c r="E22" s="293">
-        <v>42825</v>
-      </c>
-      <c r="F22" s="294">
-        <v>16.62</v>
-      </c>
-      <c r="G22" s="294">
-        <v>16.12</v>
-      </c>
-      <c r="H22" s="294">
-        <v>967.2</v>
-      </c>
-      <c r="I22" s="294">
-        <v>-30</v>
-      </c>
-      <c r="J22" s="295"/>
-      <c r="K22" s="295"/>
-      <c r="L22" s="291">
-        <v>7</v>
-      </c>
-      <c r="N22" s="291">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="291" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="291" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="292" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="291">
-        <v>23</v>
-      </c>
-      <c r="E23" s="293">
-        <v>42825</v>
-      </c>
-      <c r="F23" s="294">
-        <v>36.25</v>
-      </c>
-      <c r="G23" s="294">
-        <v>40.950000000000003</v>
-      </c>
-      <c r="H23" s="294">
-        <v>941.85</v>
-      </c>
-      <c r="I23" s="294">
-        <v>108.15</v>
-      </c>
-      <c r="J23" s="295"/>
-      <c r="K23" s="295"/>
-      <c r="L23" s="291">
-        <v>7</v>
-      </c>
-      <c r="M23" s="291">
-        <v>15.69</v>
-      </c>
-      <c r="N23" s="291">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="291" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="291" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="292" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="291">
-        <v>14</v>
-      </c>
-      <c r="E24" s="293">
-        <v>42825</v>
-      </c>
-      <c r="F24" s="294">
-        <v>57.68</v>
-      </c>
-      <c r="G24" s="294">
-        <v>54.25</v>
-      </c>
-      <c r="H24" s="294">
-        <v>759.5</v>
-      </c>
-      <c r="I24" s="294">
-        <v>-47.99</v>
-      </c>
-      <c r="J24" s="295"/>
-      <c r="K24" s="295"/>
-      <c r="L24" s="291">
-        <v>7</v>
-      </c>
-      <c r="M24" s="291">
-        <v>20.77</v>
-      </c>
-      <c r="N24" s="291">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="291" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="291" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="292" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="291">
-        <v>30</v>
-      </c>
-      <c r="E25" s="293">
-        <v>42436</v>
-      </c>
-      <c r="F25" s="294">
-        <v>38.130000000000003</v>
-      </c>
-      <c r="G25" s="294">
-        <v>34.86</v>
-      </c>
-      <c r="H25" s="294">
-        <v>1045.8</v>
-      </c>
-      <c r="I25" s="294">
-        <v>-98.1</v>
-      </c>
-      <c r="J25" s="295"/>
-      <c r="K25" s="295"/>
-      <c r="L25" s="291">
-        <v>19</v>
-      </c>
-      <c r="M25" s="291">
-        <v>16.38</v>
-      </c>
-      <c r="N25" s="291">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="K26" s="295">
-        <f>SUM(K2:K11)</f>
-        <v>0.46480000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="291" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="294">
-        <v>11939.38</v>
-      </c>
-      <c r="J27" s="295">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="L27" s="291" t="s">
-        <v>144</v>
-      </c>
-      <c r="M27" s="291">
-        <f>AVERAGE(M2:M25)</f>
-        <v>18.059545454545454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="291" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="294">
-        <v>51468.91</v>
-      </c>
-      <c r="J28" s="295">
-        <v>1</v>
-      </c>
-      <c r="L28" s="291" t="s">
-        <v>146</v>
-      </c>
-      <c r="M28" s="291" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="291" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="291" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="291" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="291" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="291" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="296"/>
-      <c r="J31" s="297">
-        <f>SUMPRODUCT(J2:J11,K2:K11)*1/SUM(K2:K11)</f>
-        <v>0.23825219449225471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="291" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="295">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="C32" s="291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D32" s="291">
-        <v>12.0831</v>
-      </c>
-      <c r="E32" s="295">
-        <v>0.18429999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="291" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="295">
-        <v>0.3327</v>
-      </c>
-      <c r="C33" s="291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="291">
-        <v>33.64</v>
-      </c>
-      <c r="E33" s="295">
-        <v>0.1573</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="291" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="295">
-        <v>0.1074</v>
-      </c>
-      <c r="C34" s="291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="291">
-        <v>10.09</v>
-      </c>
-      <c r="E34" s="295">
-        <v>0.1239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="291" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="295">
-        <v>0.38929999999999998</v>
-      </c>
-      <c r="C35" s="291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D35" s="291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" s="295">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="291" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="295">
-        <v>9.9699999999999997E-2</v>
-      </c>
-      <c r="C36" s="291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D36" s="291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="295">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="291" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="295">
-        <v>0.1037</v>
-      </c>
-      <c r="C37" s="291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D37" s="291">
-        <v>13.68</v>
-      </c>
-      <c r="E37" s="295">
-        <v>9.0499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="291" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="291" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="291">
-        <v>0</v>
-      </c>
-      <c r="D38" s="291" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="295">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="E39" s="295">
-        <v>1</v>
-      </c>
-      <c r="F39" s="295" t="s">
-        <v>155</v>
+      <c r="K16" s="228">
+        <f>SUM(K2:K15)</f>
+        <v>0.30329999999999996</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N25" xr:uid="{67AD23C9-A183-4203-B791-89664180B877}">
-    <sortState ref="A2:N25">
-      <sortCondition descending="1" ref="J1:J25"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="J2:J25">
+  <conditionalFormatting sqref="J2:J15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6151,9 +5610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -15515,7 +14974,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TSF PORTFOLIO 2.0.xlsx
+++ b/TSF PORTFOLIO 2.0.xlsx
@@ -9,28 +9,64 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="324" yWindow="540" windowWidth="17916" windowHeight="10260" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="324" yWindow="540" windowWidth="17916" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Postions Clean (2)" sheetId="8" r:id="rId1"/>
-    <sheet name="Positions ETF" sheetId="7" r:id="rId2"/>
-    <sheet name="Postions Active" sheetId="9" r:id="rId3"/>
-    <sheet name="Postions Clean" sheetId="5" r:id="rId4"/>
-    <sheet name="Overview" sheetId="1" r:id="rId5"/>
-    <sheet name="POSITIONS" sheetId="2" r:id="rId6"/>
-    <sheet name="Benchmark Chart" sheetId="6" r:id="rId7"/>
-    <sheet name="BENCHMARKS" sheetId="3" r:id="rId8"/>
-    <sheet name="CLOSED POSITIONS" sheetId="4" r:id="rId9"/>
+    <sheet name="Postions Print" sheetId="10" r:id="rId1"/>
+    <sheet name="Postions Clean (2)" sheetId="8" r:id="rId2"/>
+    <sheet name="Positions ETF" sheetId="7" r:id="rId3"/>
+    <sheet name="Postions Active" sheetId="9" r:id="rId4"/>
+    <sheet name="Postions Clean" sheetId="5" r:id="rId5"/>
+    <sheet name="Overview" sheetId="1" r:id="rId6"/>
+    <sheet name="POSITIONS" sheetId="2" r:id="rId7"/>
+    <sheet name="Benchmark Chart" sheetId="6" r:id="rId8"/>
+    <sheet name="BENCHMARKS" sheetId="3" r:id="rId9"/>
+    <sheet name="CLOSED POSITIONS" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Positions ETF'!$A$1:$N$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Postions Clean (2)'!$A$1:$N$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Positions ETF'!$A$1:$N$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Postions Clean (2)'!$A$1:$N$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Postions Print'!$A$1:$M$28</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>David Hiles</author>
+  </authors>
+  <commentList>
+    <comment ref="K28" authorId="0" shapeId="0" xr:uid="{4DA08F95-A0D5-43E2-BF8E-9B09A52E3D63}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Hiles:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cash Check</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David Hiles</author>
@@ -65,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="163">
   <si>
     <t>POSITION</t>
   </si>
@@ -551,6 +587,9 @@
   </si>
   <si>
     <t>SPY + Cash</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1131,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1631,6 +1670,8 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1744,17 +1785,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2400"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>Divergence Between</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> S&amp;P and TSF Portfolio </a:t>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> S&amp;P 500 and TSF Portfolio </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1968,6 +2009,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0751476570539643E-16"/>
+                  <c:y val="-3.4379358626711029E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1988,6 +2035,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2196,6 +2255,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0751476570539643E-16"/>
+                  <c:y val="-3.8423989053382929E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2216,6 +2281,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2485,8 +2562,18 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2495,14 +2582,838 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Divergence Between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> S&amp;P 500 and TSF Portfolio </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Difference</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>BENCHMARKS!$A$2:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BENCHMARKS!$J$2:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5049391478887841E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5514063510742693E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6888158816713634E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2148416625897855E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3739974968902002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0183780203135928E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.0564701058734034E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.5989795052577369E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.8809313428436187E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.1054937857419196E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.4414056946675338E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.7771838104359041E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.1454896358169595E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.3946613195430491E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.9820276138978805E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.2725681641380397E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.10257739200382399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.12059256791894324</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.13144210824805302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.1375625748720628</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.14971906377250899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.14912175872449618</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.15373801044589563</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.16213980077276857</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.17428760651919428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.18831070144332673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD96-4EB8-B144-46F6CA477F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TSF Portfolio</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0751476570539643E-16"/>
+                  <c:y val="-3.4379358626711029E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DD96-4EB8-B144-46F6CA477F1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>BENCHMARKS!$A$2:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BENCHMARKS!$H$2:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0258786154541575E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10199419518250386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10732768517654834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2187775800583998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7528934396234384E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9787458652335221E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8172074450910003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.468084266720231E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6866941241470181E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5614080090695914E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1307133324244552E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6564708646953639E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1481331663880256E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6981620469694896E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9783924817209178E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7078639491414691E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8148108949751336E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1144258504524025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10309560369384418</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10819858718347963</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11046329116648845</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11712690235134571</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13701100332216365</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12931459742980755</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14209560010619438</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1540776780012485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD96-4EB8-B144-46F6CA477F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>S&amp;P 500</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0751476570539643E-16"/>
+                  <c:y val="-3.8423989053382929E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DD96-4EB8-B144-46F6CA477F1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>BENCHMARKS!$A$2:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BENCHMARKS!$I$2:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2093946756537335E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6480131671761162E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8638869294876974E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7972934137994212E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3788959427332381E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6036784491992933E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6228544556783406E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0670637719779679E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5676254669906369E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.666901794811511E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13572119027091989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13433654675131268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13293622802204985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11092823366512539</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14960420095618798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16980432113279509</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19072550095357532</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23501841837134574</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23453771194189721</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24576116205554244</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26018235493899744</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.26624866107584189</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.29074901376805928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.29145439820257613</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31638320662538866</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34238837944457523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DD96-4EB8-B144-46F6CA477F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="104739968"/>
+        <c:axId val="104741504"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="104739968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/yy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104741504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="104741504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="-0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104739968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -2536,6 +3447,127 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="11269980" y="594360"/>
+    <xdr:ext cx="8662276" cy="6279931"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57AB0C0-F8DF-45BA-9CA9-68B01E3A71F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>741867</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729D1E56-12C9-492A-9BC7-BC2F642B85A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10279380" y="1188720"/>
+          <a:ext cx="8666667" cy="6285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>284480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>35747</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0578FD31-4A72-40E6-B39C-E61E85974118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13530580" y="337820"/>
+          <a:ext cx="8666667" cy="6369534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2859,6 +3891,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719E6C50-7F6E-4842-B285-9B4E167F9290}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" style="291" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="291"/>
+    <col min="5" max="6" width="10.109375" style="291" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="291" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="291" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="291"/>
+    <col min="10" max="10" width="11.109375" style="291" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="291"/>
+    <col min="12" max="12" width="11.21875" style="291" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="291"/>
+    <col min="14" max="14" width="13.33203125" style="291" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="291"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="291" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="291" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="291" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="291" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="291" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="291" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="291" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="291" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="300" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="300" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="291" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="291" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="292" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="291">
+        <v>28</v>
+      </c>
+      <c r="E2" s="293">
+        <v>42349</v>
+      </c>
+      <c r="F2" s="294">
+        <v>127.18</v>
+      </c>
+      <c r="G2" s="294">
+        <v>137.87</v>
+      </c>
+      <c r="H2" s="294">
+        <v>3860.36</v>
+      </c>
+      <c r="I2" s="294">
+        <v>299.32</v>
+      </c>
+      <c r="J2" s="295">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="K2" s="295">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L2" s="301">
+        <f>K2*J2</f>
+        <v>6.3074999999999997E-3</v>
+      </c>
+      <c r="M2" s="291">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="291" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="292" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="291">
+        <v>23</v>
+      </c>
+      <c r="E3" s="293">
+        <v>42290</v>
+      </c>
+      <c r="F3" s="294">
+        <v>63.26</v>
+      </c>
+      <c r="G3" s="294">
+        <v>53.42</v>
+      </c>
+      <c r="H3" s="294">
+        <v>1228.6600000000001</v>
+      </c>
+      <c r="I3" s="294">
+        <v>-226.32</v>
+      </c>
+      <c r="J3" s="295">
+        <v>-0.1555</v>
+      </c>
+      <c r="K3" s="295">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="L3" s="301">
+        <f t="shared" ref="L3:L25" si="0">K3*J3</f>
+        <v>-3.71645E-3</v>
+      </c>
+      <c r="M3" s="291">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="291" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="292" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="291">
+        <v>12</v>
+      </c>
+      <c r="E4" s="293">
+        <v>42815</v>
+      </c>
+      <c r="F4" s="294">
+        <v>92.31</v>
+      </c>
+      <c r="G4" s="294">
+        <v>77.22</v>
+      </c>
+      <c r="H4" s="294">
+        <v>926.64</v>
+      </c>
+      <c r="I4" s="294">
+        <v>-181.08</v>
+      </c>
+      <c r="J4" s="295">
+        <v>-0.16350000000000001</v>
+      </c>
+      <c r="K4" s="295">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L4" s="301">
+        <f t="shared" si="0"/>
+        <v>-2.9429999999999999E-3</v>
+      </c>
+      <c r="M4" s="291">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="291" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="292" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="291">
+        <v>24</v>
+      </c>
+      <c r="E5" s="293">
+        <v>42499</v>
+      </c>
+      <c r="F5" s="294">
+        <v>124.23</v>
+      </c>
+      <c r="G5" s="294">
+        <v>144.58000000000001</v>
+      </c>
+      <c r="H5" s="294">
+        <v>3469.92</v>
+      </c>
+      <c r="I5" s="294">
+        <v>488.4</v>
+      </c>
+      <c r="J5" s="295">
+        <v>0.1638</v>
+      </c>
+      <c r="K5" s="295">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="L5" s="301">
+        <f t="shared" si="0"/>
+        <v>1.104012E-2</v>
+      </c>
+      <c r="M5" s="291">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="291" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="292" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="291">
+        <v>33</v>
+      </c>
+      <c r="E6" s="293">
+        <v>42349</v>
+      </c>
+      <c r="F6" s="294">
+        <v>48.21</v>
+      </c>
+      <c r="G6" s="294">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="H6" s="294">
+        <v>2225.19</v>
+      </c>
+      <c r="I6" s="294">
+        <v>634.26</v>
+      </c>
+      <c r="J6" s="295">
+        <v>0.3987</v>
+      </c>
+      <c r="K6" s="295">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="L6" s="301">
+        <f t="shared" si="0"/>
+        <v>1.7223840000000001E-2</v>
+      </c>
+      <c r="M6" s="291">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="291" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="292" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="291">
+        <v>23</v>
+      </c>
+      <c r="E7" s="293">
+        <v>42349</v>
+      </c>
+      <c r="F7" s="294">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="G7" s="294">
+        <v>92.59</v>
+      </c>
+      <c r="H7" s="294">
+        <v>2129.5700000000002</v>
+      </c>
+      <c r="I7" s="294">
+        <v>526.24</v>
+      </c>
+      <c r="J7" s="295">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="K7" s="295">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="L7" s="301">
+        <f t="shared" si="0"/>
+        <v>1.3587479999999999E-2</v>
+      </c>
+      <c r="M7" s="291">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="291" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="292" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="291">
+        <v>25</v>
+      </c>
+      <c r="E8" s="293">
+        <v>42338</v>
+      </c>
+      <c r="F8" s="294">
+        <v>79.34</v>
+      </c>
+      <c r="G8" s="294">
+        <v>108.41</v>
+      </c>
+      <c r="H8" s="294">
+        <v>2710.25</v>
+      </c>
+      <c r="I8" s="294">
+        <v>726.75</v>
+      </c>
+      <c r="J8" s="295">
+        <v>0.3664</v>
+      </c>
+      <c r="K8" s="295">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="L8" s="301">
+        <f t="shared" si="0"/>
+        <v>1.9309279999999998E-2</v>
+      </c>
+      <c r="M8" s="291">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="291" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="292" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="291">
+        <v>36</v>
+      </c>
+      <c r="E9" s="293">
+        <v>42692</v>
+      </c>
+      <c r="F9" s="294">
+        <v>25.75</v>
+      </c>
+      <c r="G9" s="294">
+        <v>28.6</v>
+      </c>
+      <c r="H9" s="294">
+        <v>1029.5999999999999</v>
+      </c>
+      <c r="I9" s="294">
+        <v>102.6</v>
+      </c>
+      <c r="J9" s="295">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="K9" s="295">
+        <v>0.02</v>
+      </c>
+      <c r="L9" s="301">
+        <f t="shared" si="0"/>
+        <v>2.2140000000000003E-3</v>
+      </c>
+      <c r="M9" s="291">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="291" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="291" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="292" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="291">
+        <v>44</v>
+      </c>
+      <c r="E10" s="293">
+        <v>42349</v>
+      </c>
+      <c r="F10" s="294">
+        <v>69.77</v>
+      </c>
+      <c r="G10" s="294">
+        <v>83.11</v>
+      </c>
+      <c r="H10" s="294">
+        <v>3656.84</v>
+      </c>
+      <c r="I10" s="294">
+        <v>587.05999999999995</v>
+      </c>
+      <c r="J10" s="295">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="K10" s="295">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L10" s="301">
+        <f t="shared" si="0"/>
+        <v>1.3575199999999999E-2</v>
+      </c>
+      <c r="M10" s="291">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="291" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="291" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="292" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="291">
+        <v>9</v>
+      </c>
+      <c r="E11" s="293">
+        <v>42349</v>
+      </c>
+      <c r="F11" s="294">
+        <v>101.28</v>
+      </c>
+      <c r="G11" s="294">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="H11" s="294">
+        <v>720.9</v>
+      </c>
+      <c r="I11" s="294">
+        <v>-190.62</v>
+      </c>
+      <c r="J11" s="295">
+        <v>-0.20910000000000001</v>
+      </c>
+      <c r="K11" s="295">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L11" s="301">
+        <f t="shared" si="0"/>
+        <v>-2.9274000000000001E-3</v>
+      </c>
+      <c r="M11" s="291">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="291" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="291" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="292" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="291">
+        <v>5</v>
+      </c>
+      <c r="E12" s="293">
+        <v>42349</v>
+      </c>
+      <c r="F12" s="294">
+        <v>188.72</v>
+      </c>
+      <c r="G12" s="294">
+        <v>149.75</v>
+      </c>
+      <c r="H12" s="294">
+        <v>748.75</v>
+      </c>
+      <c r="I12" s="294">
+        <v>-194.85</v>
+      </c>
+      <c r="J12" s="295">
+        <v>-0.20649999999999999</v>
+      </c>
+      <c r="K12" s="295">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="L12" s="301">
+        <f t="shared" si="0"/>
+        <v>-2.9942499999999999E-3</v>
+      </c>
+      <c r="M12" s="291">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="291" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="291" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="291">
+        <v>6</v>
+      </c>
+      <c r="E13" s="293">
+        <v>42815</v>
+      </c>
+      <c r="F13" s="294">
+        <v>168.82</v>
+      </c>
+      <c r="G13" s="294">
+        <v>208.15</v>
+      </c>
+      <c r="H13" s="294">
+        <v>1248.9000000000001</v>
+      </c>
+      <c r="I13" s="294">
+        <v>235.98</v>
+      </c>
+      <c r="J13" s="295">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="K13" s="295">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="L13" s="301">
+        <f t="shared" si="0"/>
+        <v>5.6619000000000001E-3</v>
+      </c>
+      <c r="M13" s="291">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="291" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="291" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="292" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="291">
+        <v>14</v>
+      </c>
+      <c r="E14" s="293">
+        <v>42373</v>
+      </c>
+      <c r="F14" s="294">
+        <v>98.67</v>
+      </c>
+      <c r="G14" s="294">
+        <v>137.4</v>
+      </c>
+      <c r="H14" s="294">
+        <v>1923.6</v>
+      </c>
+      <c r="I14" s="294">
+        <v>542.22</v>
+      </c>
+      <c r="J14" s="295">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="K14" s="295">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="L14" s="301">
+        <f t="shared" si="0"/>
+        <v>1.4679500000000002E-2</v>
+      </c>
+      <c r="M14" s="291">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="291" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="291" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="292" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="291">
+        <v>32</v>
+      </c>
+      <c r="E15" s="293">
+        <v>42373</v>
+      </c>
+      <c r="F15" s="294">
+        <v>42.54</v>
+      </c>
+      <c r="G15" s="294">
+        <v>58.96</v>
+      </c>
+      <c r="H15" s="294">
+        <v>1886.72</v>
+      </c>
+      <c r="I15" s="294">
+        <v>525.44000000000005</v>
+      </c>
+      <c r="J15" s="295">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="K15" s="295">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="L15" s="301">
+        <f t="shared" si="0"/>
+        <v>1.4166200000000002E-2</v>
+      </c>
+      <c r="M15" s="291">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="291" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="292" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="291">
+        <v>15</v>
+      </c>
+      <c r="E16" s="293">
+        <v>42324</v>
+      </c>
+      <c r="F16" s="294">
+        <v>89.86</v>
+      </c>
+      <c r="G16" s="294">
+        <v>91.83</v>
+      </c>
+      <c r="H16" s="294">
+        <v>1377.45</v>
+      </c>
+      <c r="I16" s="294">
+        <v>29.55</v>
+      </c>
+      <c r="J16" s="295">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="K16" s="295">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="L16" s="301">
+        <f t="shared" si="0"/>
+        <v>5.8692E-4</v>
+      </c>
+      <c r="M16" s="291">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="291" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="292" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="291">
+        <v>20</v>
+      </c>
+      <c r="E17" s="293">
+        <v>42671</v>
+      </c>
+      <c r="F17" s="294">
+        <v>43.53</v>
+      </c>
+      <c r="G17" s="294">
+        <v>42.31</v>
+      </c>
+      <c r="H17" s="294">
+        <v>846.2</v>
+      </c>
+      <c r="I17" s="294">
+        <v>-24.4</v>
+      </c>
+      <c r="J17" s="295">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="K17" s="295">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="L17" s="301">
+        <f t="shared" si="0"/>
+        <v>-4.5920000000000005E-4</v>
+      </c>
+      <c r="M17" s="291">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="291" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="292" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="291">
+        <v>52</v>
+      </c>
+      <c r="E18" s="293">
+        <v>42373</v>
+      </c>
+      <c r="F18" s="294">
+        <v>46.19</v>
+      </c>
+      <c r="G18" s="294">
+        <v>54.94</v>
+      </c>
+      <c r="H18" s="294">
+        <v>2856.88</v>
+      </c>
+      <c r="I18" s="294">
+        <v>454.88</v>
+      </c>
+      <c r="J18" s="295">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="K18" s="295">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="L18" s="301">
+        <f t="shared" si="0"/>
+        <v>1.0511700000000001E-2</v>
+      </c>
+      <c r="M18" s="291">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="291" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="292" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="291">
+        <v>12</v>
+      </c>
+      <c r="E19" s="293">
+        <v>42424</v>
+      </c>
+      <c r="F19" s="294">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="G19" s="294">
+        <v>87.99</v>
+      </c>
+      <c r="H19" s="294">
+        <v>1055.8800000000001</v>
+      </c>
+      <c r="I19" s="294">
+        <v>160.68</v>
+      </c>
+      <c r="J19" s="295">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="K19" s="295">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="L19" s="301">
+        <f t="shared" si="0"/>
+        <v>3.6797499999999999E-3</v>
+      </c>
+      <c r="M19" s="291">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="291" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="291">
+        <v>60</v>
+      </c>
+      <c r="E20" s="293">
+        <v>42825</v>
+      </c>
+      <c r="F20" s="294">
+        <v>16.62</v>
+      </c>
+      <c r="G20" s="294">
+        <v>16.12</v>
+      </c>
+      <c r="H20" s="294">
+        <v>967.2</v>
+      </c>
+      <c r="I20" s="294">
+        <v>-30</v>
+      </c>
+      <c r="J20" s="295">
+        <v>-3.0099999999999998E-2</v>
+      </c>
+      <c r="K20" s="295">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="L20" s="301">
+        <f t="shared" si="0"/>
+        <v>-5.6587999999999994E-4</v>
+      </c>
+      <c r="M20" s="291">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="291" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="291" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="292" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="291">
+        <v>7</v>
+      </c>
+      <c r="E21" s="293">
+        <v>42361</v>
+      </c>
+      <c r="F21" s="294">
+        <v>112.88</v>
+      </c>
+      <c r="G21" s="294">
+        <v>155.71</v>
+      </c>
+      <c r="H21" s="294">
+        <v>1089.97</v>
+      </c>
+      <c r="I21" s="294">
+        <v>299.81</v>
+      </c>
+      <c r="J21" s="295">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="K21" s="295">
+        <v>2.12E-2</v>
+      </c>
+      <c r="L21" s="301">
+        <f t="shared" si="0"/>
+        <v>8.0432799999999999E-3</v>
+      </c>
+      <c r="M21" s="291">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="291" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="291" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="292" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="291">
+        <v>30</v>
+      </c>
+      <c r="E22" s="293">
+        <v>42361</v>
+      </c>
+      <c r="F22" s="294">
+        <v>24.93</v>
+      </c>
+      <c r="G22" s="294">
+        <v>27.43</v>
+      </c>
+      <c r="H22" s="294">
+        <v>822.9</v>
+      </c>
+      <c r="I22" s="294">
+        <v>75</v>
+      </c>
+      <c r="J22" s="295">
+        <v>0.1003</v>
+      </c>
+      <c r="K22" s="295">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L22" s="301">
+        <f t="shared" si="0"/>
+        <v>1.6048E-3</v>
+      </c>
+      <c r="M22" s="291">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="291" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="291" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="292" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="291">
+        <v>23</v>
+      </c>
+      <c r="E23" s="293">
+        <v>42825</v>
+      </c>
+      <c r="F23" s="294">
+        <v>36.25</v>
+      </c>
+      <c r="G23" s="294">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="H23" s="294">
+        <v>941.85</v>
+      </c>
+      <c r="I23" s="294">
+        <v>108.15</v>
+      </c>
+      <c r="J23" s="295">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="K23" s="295">
+        <v>1.83E-2</v>
+      </c>
+      <c r="L23" s="301">
+        <f t="shared" si="0"/>
+        <v>2.3735100000000001E-3</v>
+      </c>
+      <c r="M23" s="291">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="291" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="291" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="292" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="291">
+        <v>14</v>
+      </c>
+      <c r="E24" s="293">
+        <v>42825</v>
+      </c>
+      <c r="F24" s="294">
+        <v>57.68</v>
+      </c>
+      <c r="G24" s="294">
+        <v>54.25</v>
+      </c>
+      <c r="H24" s="294">
+        <v>759.5</v>
+      </c>
+      <c r="I24" s="294">
+        <v>-47.99</v>
+      </c>
+      <c r="J24" s="295">
+        <v>-5.9400000000000001E-2</v>
+      </c>
+      <c r="K24" s="295">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="L24" s="301">
+        <f t="shared" si="0"/>
+        <v>-8.7912000000000005E-4</v>
+      </c>
+      <c r="M24" s="291">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="291" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="291" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="292" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="291">
+        <v>30</v>
+      </c>
+      <c r="E25" s="293">
+        <v>42436</v>
+      </c>
+      <c r="F25" s="294">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="G25" s="294">
+        <v>34.86</v>
+      </c>
+      <c r="H25" s="294">
+        <v>1045.8</v>
+      </c>
+      <c r="I25" s="294">
+        <v>-98.1</v>
+      </c>
+      <c r="J25" s="295">
+        <v>-8.5800000000000001E-2</v>
+      </c>
+      <c r="K25" s="295">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="L25" s="301">
+        <f t="shared" si="0"/>
+        <v>-1.7417399999999999E-3</v>
+      </c>
+      <c r="M25" s="291">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="291" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="294">
+        <v>11939.38</v>
+      </c>
+      <c r="H27" s="295">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K27" s="298">
+        <f>SUM(K2:K25)</f>
+        <v>0.7681</v>
+      </c>
+      <c r="L27" s="299"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="291" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="294">
+        <v>51468.91</v>
+      </c>
+      <c r="H28" s="295">
+        <v>1</v>
+      </c>
+      <c r="K28" s="299">
+        <f>K27+H27</f>
+        <v>1.0001</v>
+      </c>
+      <c r="L28" s="298">
+        <f>SUM(L2:L25)</f>
+        <v>0.12833793999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="G31" s="296"/>
+      <c r="J31" s="297"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="295"/>
+      <c r="E32" s="295"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="295"/>
+      <c r="E33" s="295"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="295"/>
+      <c r="E34" s="295"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="295"/>
+      <c r="E35" s="295"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="295"/>
+      <c r="E36" s="295"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="295"/>
+      <c r="E37" s="295"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="E38" s="295"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="E39" s="295"/>
+      <c r="F39" s="295"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J2:J25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;F</oddHeader>
+    <oddFooter>&amp;L&amp;B Confidential&amp;B&amp;C&amp;D&amp;RPage &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBAD822-315B-481A-8B88-6586449ACCA9}">
   <dimension ref="A1:N39"/>
   <sheetViews>
@@ -4183,7 +6385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EB2A3A-C366-42F1-B045-7DE465290616}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -4899,7 +7101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AD4A65-3F3B-4081-B653-B2D35E07400A}">
   <dimension ref="A1:N16"/>
   <sheetViews>
@@ -5606,13 +7808,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6935,7 +9137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA998"/>
   <sheetViews>
@@ -14978,11 +17180,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -20038,12 +22242,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -22263,10 +24467,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA1011"/>
   <sheetViews>
